--- a/文档/系统.xlsx
+++ b/文档/系统.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="系统构架" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="293">
   <si>
     <t>2.1 货币介绍</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1222,6 +1222,10 @@
   </si>
   <si>
     <t>3.已方出战人数＜4时，战斗开始时，站位按初始设定的4个位置随机站位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宿舍</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1605,6 +1609,9 @@
     <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1629,9 +1636,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1674,7 +1678,7 @@
         <xdr:cNvPr id="3" name="图片 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5832BC66-A45A-41C9-B4A8-4001193C1D24}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5832BC66-A45A-41C9-B4A8-4001193C1D24}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1729,7 +1733,7 @@
         <xdr:cNvPr id="125" name="矩形 124">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B54F16CC-DD50-4A02-B750-B259CA48645C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B54F16CC-DD50-4A02-B750-B259CA48645C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1789,7 +1793,7 @@
         <xdr:cNvPr id="2" name="矩形 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B54F16CC-DD50-4A02-B750-B259CA48645C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B54F16CC-DD50-4A02-B750-B259CA48645C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1849,7 +1853,7 @@
         <xdr:cNvPr id="5" name="矩形 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2B2BF022-23A6-467A-81E1-19EC305EFC34}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B2BF022-23A6-467A-81E1-19EC305EFC34}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1912,7 +1916,7 @@
         <xdr:cNvPr id="6" name="矩形 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B100BD83-D85A-4C06-B53A-14C9386E8B03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B100BD83-D85A-4C06-B53A-14C9386E8B03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1984,7 +1988,7 @@
         <xdr:cNvPr id="7" name="矩形 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{51526E19-94A1-4255-A926-245DA024AF87}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{51526E19-94A1-4255-A926-245DA024AF87}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2048,7 +2052,7 @@
         <xdr:cNvPr id="8" name="矩形 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{ED4102E9-C5D8-4C1E-B261-ABCC2D4AF7B3}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED4102E9-C5D8-4C1E-B261-ABCC2D4AF7B3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2112,7 +2116,7 @@
         <xdr:cNvPr id="10" name="矩形 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{637B0498-9A4D-44DD-BD16-F8DCAA51FCA7}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{637B0498-9A4D-44DD-BD16-F8DCAA51FCA7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2180,7 +2184,7 @@
         <xdr:cNvPr id="12" name="矩形 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A3E914B5-11B4-4AAA-A1EB-D0BECDB26C77}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A3E914B5-11B4-4AAA-A1EB-D0BECDB26C77}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2261,7 +2265,7 @@
         <xdr:cNvPr id="13" name="矩形 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F270FCC1-8F02-4350-AFE0-E3B6E9D52ECF}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F270FCC1-8F02-4350-AFE0-E3B6E9D52ECF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2327,7 +2331,7 @@
         <xdr:cNvPr id="14" name="文本框 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{78B31F25-953E-454C-B09B-E0F837A2CC30}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{78B31F25-953E-454C-B09B-E0F837A2CC30}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2402,7 +2406,7 @@
         <xdr:cNvPr id="15" name="矩形 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{663DC41B-36FF-499E-9F50-709A426973CB}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{663DC41B-36FF-499E-9F50-709A426973CB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2479,7 +2483,7 @@
         <xdr:cNvPr id="23" name="矩形 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{492749A2-EC1B-4DD5-8D68-38774155B304}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{492749A2-EC1B-4DD5-8D68-38774155B304}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2556,7 +2560,7 @@
         <xdr:cNvPr id="24" name="矩形 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CC8F8F79-77DD-4052-B78C-86FD2F5883F2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC8F8F79-77DD-4052-B78C-86FD2F5883F2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2633,7 +2637,7 @@
         <xdr:cNvPr id="25" name="矩形 24">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3F064B9A-1D1A-4976-8159-49AC208C0A73}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F064B9A-1D1A-4976-8159-49AC208C0A73}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2710,7 +2714,7 @@
         <xdr:cNvPr id="26" name="矩形 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{21DDE71E-CD2A-43CC-BA95-31DE86EE7B0B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{21DDE71E-CD2A-43CC-BA95-31DE86EE7B0B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2773,7 +2777,7 @@
         <xdr:cNvPr id="31" name="矩形 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{20E413CF-E69C-431A-B70B-280EC1DEB644}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{20E413CF-E69C-431A-B70B-280EC1DEB644}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2836,7 +2840,7 @@
         <xdr:cNvPr id="32" name="矩形 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0E9BF090-DFAF-4425-86D1-49CFC9E3EE43}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E9BF090-DFAF-4425-86D1-49CFC9E3EE43}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2904,7 +2908,7 @@
         <xdr:cNvPr id="33" name="箭头: 上弧形 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2DA0E5BC-FE32-45EF-A8D3-9C689F395FDC}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2DA0E5BC-FE32-45EF-A8D3-9C689F395FDC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2968,7 +2972,7 @@
         <xdr:cNvPr id="34" name="椭圆 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{61B59BC8-B668-464B-B188-CE3710D31973}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{61B59BC8-B668-464B-B188-CE3710D31973}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3031,7 +3035,7 @@
         <xdr:cNvPr id="35" name="矩形 34">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9234A242-92AE-4631-A681-4EB998017AF4}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9234A242-92AE-4631-A681-4EB998017AF4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3108,7 +3112,7 @@
         <xdr:cNvPr id="36" name="椭圆 35">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AAC8BB6D-13B4-43ED-8CD7-665843E2A330}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AAC8BB6D-13B4-43ED-8CD7-665843E2A330}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3171,7 +3175,7 @@
         <xdr:cNvPr id="37" name="椭圆 36">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7AFEEB5B-373B-43EE-BEC1-B221837F2388}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7AFEEB5B-373B-43EE-BEC1-B221837F2388}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3234,7 +3238,7 @@
         <xdr:cNvPr id="38" name="箭头: 下弧形 37">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2F4923D9-996D-4AD9-9203-5A45CE30155E}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F4923D9-996D-4AD9-9203-5A45CE30155E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3298,7 +3302,7 @@
         <xdr:cNvPr id="39" name="椭圆 38">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{70EBA076-C5F1-4589-B3E9-8F28C2563E73}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{70EBA076-C5F1-4589-B3E9-8F28C2563E73}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3361,7 +3365,7 @@
         <xdr:cNvPr id="40" name="矩形 39">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{576A5619-A65C-4FEF-A2DC-D1CEBF47BD54}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{576A5619-A65C-4FEF-A2DC-D1CEBF47BD54}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3421,7 +3425,7 @@
         <xdr:cNvPr id="44" name="矩形 43">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FB47CA34-3055-48F4-985E-28F7938D43FB}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB47CA34-3055-48F4-985E-28F7938D43FB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3484,7 +3488,7 @@
         <xdr:cNvPr id="59" name="矩形 58">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0164B002-7831-462F-841D-835A27E9AC33}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0164B002-7831-462F-841D-835A27E9AC33}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3551,7 +3555,7 @@
         <xdr:cNvPr id="76" name="图片 75">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{13806A2E-D8EB-4CC5-98D1-40F44DF499AD}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{13806A2E-D8EB-4CC5-98D1-40F44DF499AD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3595,7 +3599,7 @@
         <xdr:cNvPr id="77" name="图片 76">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DAE4DE3A-A508-4CE7-BA67-80B81237A199}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DAE4DE3A-A508-4CE7-BA67-80B81237A199}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3639,7 +3643,7 @@
         <xdr:cNvPr id="81" name="矩形 80">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A37569F0-1000-4FB2-8F40-F4CD5FDD3624}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A37569F0-1000-4FB2-8F40-F4CD5FDD3624}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3704,7 +3708,7 @@
         <xdr:cNvPr id="82" name="矩形 81">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C20B7DBC-4C70-4451-B2D6-37F62FEC5869}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C20B7DBC-4C70-4451-B2D6-37F62FEC5869}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3767,7 +3771,7 @@
         <xdr:cNvPr id="83" name="矩形 82">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{37E4AAD4-4CC5-46A3-9668-29DBB28D5D20}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37E4AAD4-4CC5-46A3-9668-29DBB28D5D20}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3827,7 +3831,7 @@
         <xdr:cNvPr id="84" name="矩形 83">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{29C124D2-96ED-4A1F-ADA9-3AFBD51A7279}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29C124D2-96ED-4A1F-ADA9-3AFBD51A7279}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3891,7 +3895,7 @@
         <xdr:cNvPr id="85" name="矩形 84">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BDF20CFF-8532-42C7-9388-90570096D494}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BDF20CFF-8532-42C7-9388-90570096D494}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3959,7 +3963,7 @@
         <xdr:cNvPr id="86" name="矩形 85">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7065E750-85A8-457A-B728-4BA987CE0073}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7065E750-85A8-457A-B728-4BA987CE0073}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4027,7 +4031,7 @@
         <xdr:cNvPr id="87" name="矩形 86">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CD03E14A-9B8F-46A0-96C3-DAF4DB6C8799}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD03E14A-9B8F-46A0-96C3-DAF4DB6C8799}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4405,7 +4409,7 @@
         <xdr:cNvPr id="90" name="矩形 89">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{29C124D2-96ED-4A1F-ADA9-3AFBD51A7279}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29C124D2-96ED-4A1F-ADA9-3AFBD51A7279}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4469,7 +4473,7 @@
         <xdr:cNvPr id="91" name="矩形 90">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{29C124D2-96ED-4A1F-ADA9-3AFBD51A7279}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29C124D2-96ED-4A1F-ADA9-3AFBD51A7279}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4533,7 +4537,7 @@
         <xdr:cNvPr id="92" name="矩形 91">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{29C124D2-96ED-4A1F-ADA9-3AFBD51A7279}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29C124D2-96ED-4A1F-ADA9-3AFBD51A7279}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4597,7 +4601,7 @@
         <xdr:cNvPr id="93" name="矩形 92">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{29C124D2-96ED-4A1F-ADA9-3AFBD51A7279}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29C124D2-96ED-4A1F-ADA9-3AFBD51A7279}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4661,7 +4665,7 @@
         <xdr:cNvPr id="94" name="矩形 93">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{29C124D2-96ED-4A1F-ADA9-3AFBD51A7279}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29C124D2-96ED-4A1F-ADA9-3AFBD51A7279}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4725,7 +4729,7 @@
         <xdr:cNvPr id="95" name="矩形 94">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{29C124D2-96ED-4A1F-ADA9-3AFBD51A7279}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29C124D2-96ED-4A1F-ADA9-3AFBD51A7279}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4789,7 +4793,7 @@
         <xdr:cNvPr id="96" name="矩形 95">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{29C124D2-96ED-4A1F-ADA9-3AFBD51A7279}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29C124D2-96ED-4A1F-ADA9-3AFBD51A7279}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4853,7 +4857,7 @@
         <xdr:cNvPr id="97" name="矩形 96">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FB47CA34-3055-48F4-985E-28F7938D43FB}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB47CA34-3055-48F4-985E-28F7938D43FB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4916,7 +4920,7 @@
         <xdr:cNvPr id="98" name="矩形 97">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{954214BE-DF53-4D49-AE91-2785A0AE08F1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{954214BE-DF53-4D49-AE91-2785A0AE08F1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4980,7 +4984,7 @@
         <xdr:cNvPr id="99" name="矩形 98">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{663DC41B-36FF-499E-9F50-709A426973CB}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{663DC41B-36FF-499E-9F50-709A426973CB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5061,7 +5065,7 @@
         <xdr:cNvPr id="100" name="矩形 99">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{492749A2-EC1B-4DD5-8D68-38774155B304}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{492749A2-EC1B-4DD5-8D68-38774155B304}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5142,7 +5146,7 @@
         <xdr:cNvPr id="101" name="矩形 100">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CC8F8F79-77DD-4052-B78C-86FD2F5883F2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC8F8F79-77DD-4052-B78C-86FD2F5883F2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5223,7 +5227,7 @@
         <xdr:cNvPr id="102" name="矩形 101">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3F064B9A-1D1A-4976-8159-49AC208C0A73}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F064B9A-1D1A-4976-8159-49AC208C0A73}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5304,7 +5308,7 @@
         <xdr:cNvPr id="103" name="矩形 102">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{64F5C027-F067-4153-BF75-FF9805DE0392}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64F5C027-F067-4153-BF75-FF9805DE0392}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5362,7 +5366,7 @@
         <xdr:cNvPr id="104" name="矩形 103">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AA8145D3-133E-4C0B-BADE-30D92F10292E}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA8145D3-133E-4C0B-BADE-30D92F10292E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5478,7 +5482,7 @@
         <xdr:cNvPr id="107" name="矩形 106">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{64F5C027-F067-4153-BF75-FF9805DE0392}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64F5C027-F067-4153-BF75-FF9805DE0392}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5536,7 +5540,7 @@
         <xdr:cNvPr id="108" name="矩形 107">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AA8145D3-133E-4C0B-BADE-30D92F10292E}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA8145D3-133E-4C0B-BADE-30D92F10292E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5652,7 +5656,7 @@
         <xdr:cNvPr id="110" name="矩形 109">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{64F5C027-F067-4153-BF75-FF9805DE0392}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64F5C027-F067-4153-BF75-FF9805DE0392}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5710,7 +5714,7 @@
         <xdr:cNvPr id="111" name="矩形 110">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AA8145D3-133E-4C0B-BADE-30D92F10292E}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA8145D3-133E-4C0B-BADE-30D92F10292E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5826,7 +5830,7 @@
         <xdr:cNvPr id="113" name="矩形 112">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{64F5C027-F067-4153-BF75-FF9805DE0392}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64F5C027-F067-4153-BF75-FF9805DE0392}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5884,7 +5888,7 @@
         <xdr:cNvPr id="114" name="矩形 113">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AA8145D3-133E-4C0B-BADE-30D92F10292E}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA8145D3-133E-4C0B-BADE-30D92F10292E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6000,7 +6004,7 @@
         <xdr:cNvPr id="116" name="矩形 115">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{64F5C027-F067-4153-BF75-FF9805DE0392}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64F5C027-F067-4153-BF75-FF9805DE0392}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6058,7 +6062,7 @@
         <xdr:cNvPr id="117" name="矩形 116">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AA8145D3-133E-4C0B-BADE-30D92F10292E}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA8145D3-133E-4C0B-BADE-30D92F10292E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6121,7 +6125,7 @@
         <xdr:cNvPr id="118" name="矩形 117">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{954214BE-DF53-4D49-AE91-2785A0AE08F1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{954214BE-DF53-4D49-AE91-2785A0AE08F1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6185,7 +6189,7 @@
         <xdr:cNvPr id="70" name="矩形 69">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9234A242-92AE-4631-A681-4EB998017AF4}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9234A242-92AE-4631-A681-4EB998017AF4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6262,7 +6266,7 @@
         <xdr:cNvPr id="71" name="椭圆 70">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AAC8BB6D-13B4-43ED-8CD7-665843E2A330}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AAC8BB6D-13B4-43ED-8CD7-665843E2A330}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6325,7 +6329,7 @@
         <xdr:cNvPr id="72" name="椭圆 71">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7AFEEB5B-373B-43EE-BEC1-B221837F2388}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7AFEEB5B-373B-43EE-BEC1-B221837F2388}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6388,7 +6392,7 @@
         <xdr:cNvPr id="73" name="箭头: 下弧形 37">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2F4923D9-996D-4AD9-9203-5A45CE30155E}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F4923D9-996D-4AD9-9203-5A45CE30155E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6452,7 +6456,7 @@
         <xdr:cNvPr id="74" name="椭圆 73">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{70EBA076-C5F1-4589-B3E9-8F28C2563E73}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{70EBA076-C5F1-4589-B3E9-8F28C2563E73}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7831,7 +7835,7 @@
         <xdr:cNvPr id="5" name="矩形 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B54F16CC-DD50-4A02-B750-B259CA48645C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B54F16CC-DD50-4A02-B750-B259CA48645C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11277,7 +11281,7 @@
         <xdr:cNvPr id="81" name="矩形 80">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B54F16CC-DD50-4A02-B750-B259CA48645C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B54F16CC-DD50-4A02-B750-B259CA48645C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11337,7 +11341,7 @@
         <xdr:cNvPr id="82" name="矩形 81">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B54F16CC-DD50-4A02-B750-B259CA48645C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B54F16CC-DD50-4A02-B750-B259CA48645C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13459,7 +13463,7 @@
         <xdr:cNvPr id="116" name="矩形 115">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B54F16CC-DD50-4A02-B750-B259CA48645C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B54F16CC-DD50-4A02-B750-B259CA48645C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15588,7 +15592,7 @@
         <xdr:cNvPr id="133" name="矩形 132">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B54F16CC-DD50-4A02-B750-B259CA48645C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B54F16CC-DD50-4A02-B750-B259CA48645C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15756,7 +15760,7 @@
         <xdr:cNvPr id="145" name="矩形 144">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B54F16CC-DD50-4A02-B750-B259CA48645C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B54F16CC-DD50-4A02-B750-B259CA48645C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16663,475 +16667,475 @@
         <v>23</v>
       </c>
     </row>
-    <row r="57" spans="2:8" s="46" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C57" s="46" t="s">
+    <row r="57" spans="2:8" s="38" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C57" s="38" t="s">
         <v>259</v>
       </c>
-      <c r="D57" s="47"/>
-      <c r="E57" s="47"/>
-      <c r="F57" s="47"/>
-      <c r="G57" s="47"/>
-      <c r="H57" s="47"/>
-    </row>
-    <row r="58" spans="2:8" s="46" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C58" s="46" t="s">
+      <c r="D57" s="39"/>
+      <c r="E57" s="39"/>
+      <c r="F57" s="39"/>
+      <c r="G57" s="39"/>
+      <c r="H57" s="39"/>
+    </row>
+    <row r="58" spans="2:8" s="38" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C58" s="38" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="59" spans="2:8" s="46" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B59" s="46" t="s">
+    <row r="59" spans="2:8" s="38" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B59" s="38" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="60" spans="2:8" s="46" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C60" s="46" t="s">
+    <row r="60" spans="2:8" s="38" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C60" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="D60" s="47"/>
-      <c r="E60" s="47"/>
-      <c r="F60" s="47"/>
-      <c r="G60" s="47"/>
-      <c r="H60" s="47"/>
-    </row>
-    <row r="61" spans="2:8" s="46" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C61" s="47"/>
-      <c r="D61" s="47" t="s">
+      <c r="D60" s="39"/>
+      <c r="E60" s="39"/>
+      <c r="F60" s="39"/>
+      <c r="G60" s="39"/>
+      <c r="H60" s="39"/>
+    </row>
+    <row r="61" spans="2:8" s="38" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C61" s="39"/>
+      <c r="D61" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="E61" s="47"/>
-      <c r="F61" s="47"/>
-      <c r="G61" s="47"/>
-      <c r="H61" s="47"/>
-    </row>
-    <row r="62" spans="2:8" s="46" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C62" s="46" t="s">
+      <c r="E61" s="39"/>
+      <c r="F61" s="39"/>
+      <c r="G61" s="39"/>
+      <c r="H61" s="39"/>
+    </row>
+    <row r="62" spans="2:8" s="38" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C62" s="38" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="63" spans="2:8" s="46" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="64" spans="2:8" s="46" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="65" spans="3:9" s="46" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="66" spans="3:9" s="46" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="67" spans="3:9" s="46" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="68" spans="3:9" s="46" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="69" spans="3:9" s="46" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="70" spans="3:9" s="46" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="71" spans="3:9" s="46" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="72" spans="3:9" s="46" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="73" spans="3:9" s="46" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="74" spans="3:9" s="46" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="D74" s="46" t="s">
+    <row r="63" spans="2:8" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="64" spans="2:8" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="65" spans="3:9" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="66" spans="3:9" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="67" spans="3:9" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="68" spans="3:9" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="69" spans="3:9" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="70" spans="3:9" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="71" spans="3:9" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="72" spans="3:9" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="73" spans="3:9" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="74" spans="3:9" s="38" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D74" s="38" t="s">
         <v>262</v>
       </c>
-      <c r="E74" s="47"/>
-      <c r="F74" s="47"/>
-      <c r="G74" s="47"/>
-      <c r="H74" s="47"/>
-      <c r="I74" s="47"/>
-    </row>
-    <row r="75" spans="3:9" s="46" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="D75" s="47" t="s">
+      <c r="E74" s="39"/>
+      <c r="F74" s="39"/>
+      <c r="G74" s="39"/>
+      <c r="H74" s="39"/>
+      <c r="I74" s="39"/>
+    </row>
+    <row r="75" spans="3:9" s="38" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D75" s="39" t="s">
         <v>265</v>
       </c>
-      <c r="E75" s="47"/>
-      <c r="F75" s="47"/>
-      <c r="G75" s="47"/>
-      <c r="H75" s="47"/>
-      <c r="I75" s="47"/>
-    </row>
-    <row r="76" spans="3:9" s="46" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="D76" s="47" t="s">
+      <c r="E75" s="39"/>
+      <c r="F75" s="39"/>
+      <c r="G75" s="39"/>
+      <c r="H75" s="39"/>
+      <c r="I75" s="39"/>
+    </row>
+    <row r="76" spans="3:9" s="38" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D76" s="39" t="s">
         <v>264</v>
       </c>
-      <c r="E76" s="47"/>
-      <c r="F76" s="47"/>
-      <c r="G76" s="47"/>
-      <c r="H76" s="47"/>
-      <c r="I76" s="47"/>
-    </row>
-    <row r="77" spans="3:9" s="46" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="D77" s="46" t="s">
+      <c r="E76" s="39"/>
+      <c r="F76" s="39"/>
+      <c r="G76" s="39"/>
+      <c r="H76" s="39"/>
+      <c r="I76" s="39"/>
+    </row>
+    <row r="77" spans="3:9" s="38" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D77" s="38" t="s">
         <v>266</v>
       </c>
-      <c r="E77" s="47"/>
-      <c r="F77" s="47"/>
-      <c r="G77" s="47"/>
-      <c r="H77" s="47"/>
-      <c r="I77" s="47"/>
-    </row>
-    <row r="78" spans="3:9" s="46" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="E78" s="47"/>
-      <c r="F78" s="47"/>
-      <c r="G78" s="47"/>
-      <c r="H78" s="47"/>
-      <c r="I78" s="47"/>
-    </row>
-    <row r="79" spans="3:9" s="46" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C79" s="46" t="s">
+      <c r="E77" s="39"/>
+      <c r="F77" s="39"/>
+      <c r="G77" s="39"/>
+      <c r="H77" s="39"/>
+      <c r="I77" s="39"/>
+    </row>
+    <row r="78" spans="3:9" s="38" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E78" s="39"/>
+      <c r="F78" s="39"/>
+      <c r="G78" s="39"/>
+      <c r="H78" s="39"/>
+      <c r="I78" s="39"/>
+    </row>
+    <row r="79" spans="3:9" s="38" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C79" s="38" t="s">
         <v>261</v>
       </c>
-      <c r="E79" s="47"/>
-      <c r="F79" s="47"/>
-      <c r="G79" s="47"/>
-      <c r="H79" s="47"/>
-      <c r="I79" s="47"/>
-    </row>
-    <row r="80" spans="3:9" s="46" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="D80" s="46" t="s">
+      <c r="E79" s="39"/>
+      <c r="F79" s="39"/>
+      <c r="G79" s="39"/>
+      <c r="H79" s="39"/>
+      <c r="I79" s="39"/>
+    </row>
+    <row r="80" spans="3:9" s="38" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D80" s="38" t="s">
         <v>263</v>
       </c>
-      <c r="E80" s="47"/>
-      <c r="F80" s="47"/>
-      <c r="G80" s="47"/>
-      <c r="H80" s="47"/>
-      <c r="I80" s="47"/>
-    </row>
-    <row r="81" spans="5:9" s="46" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="E81" s="47"/>
-      <c r="F81" s="47"/>
-      <c r="G81" s="47"/>
-      <c r="H81" s="47"/>
-      <c r="I81" s="47"/>
-    </row>
-    <row r="82" spans="5:9" s="46" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="E82" s="47"/>
-      <c r="F82" s="47"/>
-      <c r="G82" s="47"/>
-      <c r="H82" s="47"/>
-      <c r="I82" s="47"/>
-    </row>
-    <row r="83" spans="5:9" s="46" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="E83" s="47"/>
-      <c r="F83" s="47"/>
-      <c r="G83" s="47"/>
-      <c r="H83" s="47"/>
-      <c r="I83" s="47"/>
-    </row>
-    <row r="84" spans="5:9" s="46" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="E84" s="47"/>
-      <c r="F84" s="47"/>
-      <c r="G84" s="47"/>
-      <c r="H84" s="47"/>
-      <c r="I84" s="47"/>
-    </row>
-    <row r="85" spans="5:9" s="46" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="E85" s="47"/>
-      <c r="F85" s="47"/>
-      <c r="G85" s="47"/>
-      <c r="H85" s="47"/>
-      <c r="I85" s="47"/>
-    </row>
-    <row r="86" spans="5:9" s="46" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="E86" s="47"/>
-      <c r="F86" s="47"/>
-      <c r="G86" s="47"/>
-      <c r="H86" s="47"/>
-      <c r="I86" s="47"/>
-    </row>
-    <row r="87" spans="5:9" s="46" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="E87" s="47"/>
-      <c r="F87" s="47"/>
-      <c r="G87" s="47"/>
-      <c r="H87" s="47"/>
-      <c r="I87" s="47"/>
-    </row>
-    <row r="88" spans="5:9" s="46" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="E88" s="47"/>
-      <c r="F88" s="47"/>
-      <c r="G88" s="47"/>
-      <c r="H88" s="47"/>
-      <c r="I88" s="47"/>
-    </row>
-    <row r="89" spans="5:9" s="46" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="E89" s="47"/>
-      <c r="F89" s="47"/>
-      <c r="G89" s="47"/>
-      <c r="H89" s="47"/>
-      <c r="I89" s="47"/>
-    </row>
-    <row r="90" spans="5:9" s="46" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="E90" s="47"/>
-      <c r="F90" s="47"/>
-      <c r="G90" s="47"/>
-      <c r="H90" s="47"/>
-      <c r="I90" s="47"/>
-    </row>
-    <row r="91" spans="5:9" s="46" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="E91" s="47"/>
-      <c r="F91" s="47"/>
-      <c r="G91" s="47"/>
-      <c r="H91" s="47"/>
-      <c r="I91" s="47"/>
-    </row>
-    <row r="92" spans="5:9" s="46" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="E92" s="47"/>
-      <c r="F92" s="47"/>
-      <c r="G92" s="47"/>
-      <c r="H92" s="47"/>
-      <c r="I92" s="47"/>
-    </row>
-    <row r="93" spans="5:9" s="46" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="E93" s="47"/>
-      <c r="F93" s="47"/>
-      <c r="G93" s="47"/>
-      <c r="H93" s="47"/>
-      <c r="I93" s="47"/>
-    </row>
-    <row r="94" spans="5:9" s="46" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="E94" s="47"/>
-      <c r="F94" s="47"/>
-      <c r="G94" s="47"/>
-      <c r="H94" s="47"/>
-      <c r="I94" s="47"/>
-    </row>
-    <row r="95" spans="5:9" s="46" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="E95" s="47"/>
-      <c r="F95" s="47"/>
-      <c r="G95" s="47"/>
-      <c r="H95" s="47"/>
-      <c r="I95" s="47"/>
-    </row>
-    <row r="96" spans="5:9" s="46" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="E96" s="47"/>
-      <c r="F96" s="47"/>
-      <c r="G96" s="47"/>
-      <c r="H96" s="47"/>
-      <c r="I96" s="47"/>
-    </row>
-    <row r="97" spans="3:9" s="46" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="E97" s="47"/>
-      <c r="F97" s="47"/>
-      <c r="G97" s="47"/>
-      <c r="H97" s="47"/>
-      <c r="I97" s="47"/>
-    </row>
-    <row r="98" spans="3:9" s="46" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="E98" s="47"/>
-      <c r="F98" s="47"/>
-      <c r="G98" s="47"/>
-      <c r="H98" s="47"/>
-      <c r="I98" s="47"/>
-    </row>
-    <row r="99" spans="3:9" s="46" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="E99" s="47"/>
-      <c r="F99" s="47"/>
-      <c r="G99" s="47"/>
-      <c r="H99" s="47"/>
-      <c r="I99" s="47"/>
-    </row>
-    <row r="100" spans="3:9" s="46" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="E100" s="47"/>
-      <c r="F100" s="47"/>
-      <c r="G100" s="47"/>
-      <c r="H100" s="47"/>
-      <c r="I100" s="47"/>
-    </row>
-    <row r="101" spans="3:9" s="46" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="E101" s="47"/>
-      <c r="F101" s="47"/>
-      <c r="G101" s="47"/>
-      <c r="H101" s="47"/>
-      <c r="I101" s="47"/>
-    </row>
-    <row r="102" spans="3:9" s="46" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="E102" s="47"/>
-      <c r="F102" s="47"/>
-      <c r="G102" s="47"/>
-      <c r="H102" s="47"/>
-      <c r="I102" s="47"/>
-    </row>
-    <row r="103" spans="3:9" s="46" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C103" s="46" t="s">
+      <c r="E80" s="39"/>
+      <c r="F80" s="39"/>
+      <c r="G80" s="39"/>
+      <c r="H80" s="39"/>
+      <c r="I80" s="39"/>
+    </row>
+    <row r="81" spans="5:9" s="38" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E81" s="39"/>
+      <c r="F81" s="39"/>
+      <c r="G81" s="39"/>
+      <c r="H81" s="39"/>
+      <c r="I81" s="39"/>
+    </row>
+    <row r="82" spans="5:9" s="38" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E82" s="39"/>
+      <c r="F82" s="39"/>
+      <c r="G82" s="39"/>
+      <c r="H82" s="39"/>
+      <c r="I82" s="39"/>
+    </row>
+    <row r="83" spans="5:9" s="38" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E83" s="39"/>
+      <c r="F83" s="39"/>
+      <c r="G83" s="39"/>
+      <c r="H83" s="39"/>
+      <c r="I83" s="39"/>
+    </row>
+    <row r="84" spans="5:9" s="38" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E84" s="39"/>
+      <c r="F84" s="39"/>
+      <c r="G84" s="39"/>
+      <c r="H84" s="39"/>
+      <c r="I84" s="39"/>
+    </row>
+    <row r="85" spans="5:9" s="38" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E85" s="39"/>
+      <c r="F85" s="39"/>
+      <c r="G85" s="39"/>
+      <c r="H85" s="39"/>
+      <c r="I85" s="39"/>
+    </row>
+    <row r="86" spans="5:9" s="38" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E86" s="39"/>
+      <c r="F86" s="39"/>
+      <c r="G86" s="39"/>
+      <c r="H86" s="39"/>
+      <c r="I86" s="39"/>
+    </row>
+    <row r="87" spans="5:9" s="38" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E87" s="39"/>
+      <c r="F87" s="39"/>
+      <c r="G87" s="39"/>
+      <c r="H87" s="39"/>
+      <c r="I87" s="39"/>
+    </row>
+    <row r="88" spans="5:9" s="38" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E88" s="39"/>
+      <c r="F88" s="39"/>
+      <c r="G88" s="39"/>
+      <c r="H88" s="39"/>
+      <c r="I88" s="39"/>
+    </row>
+    <row r="89" spans="5:9" s="38" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E89" s="39"/>
+      <c r="F89" s="39"/>
+      <c r="G89" s="39"/>
+      <c r="H89" s="39"/>
+      <c r="I89" s="39"/>
+    </row>
+    <row r="90" spans="5:9" s="38" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E90" s="39"/>
+      <c r="F90" s="39"/>
+      <c r="G90" s="39"/>
+      <c r="H90" s="39"/>
+      <c r="I90" s="39"/>
+    </row>
+    <row r="91" spans="5:9" s="38" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E91" s="39"/>
+      <c r="F91" s="39"/>
+      <c r="G91" s="39"/>
+      <c r="H91" s="39"/>
+      <c r="I91" s="39"/>
+    </row>
+    <row r="92" spans="5:9" s="38" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E92" s="39"/>
+      <c r="F92" s="39"/>
+      <c r="G92" s="39"/>
+      <c r="H92" s="39"/>
+      <c r="I92" s="39"/>
+    </row>
+    <row r="93" spans="5:9" s="38" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E93" s="39"/>
+      <c r="F93" s="39"/>
+      <c r="G93" s="39"/>
+      <c r="H93" s="39"/>
+      <c r="I93" s="39"/>
+    </row>
+    <row r="94" spans="5:9" s="38" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E94" s="39"/>
+      <c r="F94" s="39"/>
+      <c r="G94" s="39"/>
+      <c r="H94" s="39"/>
+      <c r="I94" s="39"/>
+    </row>
+    <row r="95" spans="5:9" s="38" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E95" s="39"/>
+      <c r="F95" s="39"/>
+      <c r="G95" s="39"/>
+      <c r="H95" s="39"/>
+      <c r="I95" s="39"/>
+    </row>
+    <row r="96" spans="5:9" s="38" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E96" s="39"/>
+      <c r="F96" s="39"/>
+      <c r="G96" s="39"/>
+      <c r="H96" s="39"/>
+      <c r="I96" s="39"/>
+    </row>
+    <row r="97" spans="3:9" s="38" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E97" s="39"/>
+      <c r="F97" s="39"/>
+      <c r="G97" s="39"/>
+      <c r="H97" s="39"/>
+      <c r="I97" s="39"/>
+    </row>
+    <row r="98" spans="3:9" s="38" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E98" s="39"/>
+      <c r="F98" s="39"/>
+      <c r="G98" s="39"/>
+      <c r="H98" s="39"/>
+      <c r="I98" s="39"/>
+    </row>
+    <row r="99" spans="3:9" s="38" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E99" s="39"/>
+      <c r="F99" s="39"/>
+      <c r="G99" s="39"/>
+      <c r="H99" s="39"/>
+      <c r="I99" s="39"/>
+    </row>
+    <row r="100" spans="3:9" s="38" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E100" s="39"/>
+      <c r="F100" s="39"/>
+      <c r="G100" s="39"/>
+      <c r="H100" s="39"/>
+      <c r="I100" s="39"/>
+    </row>
+    <row r="101" spans="3:9" s="38" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E101" s="39"/>
+      <c r="F101" s="39"/>
+      <c r="G101" s="39"/>
+      <c r="H101" s="39"/>
+      <c r="I101" s="39"/>
+    </row>
+    <row r="102" spans="3:9" s="38" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E102" s="39"/>
+      <c r="F102" s="39"/>
+      <c r="G102" s="39"/>
+      <c r="H102" s="39"/>
+      <c r="I102" s="39"/>
+    </row>
+    <row r="103" spans="3:9" s="38" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C103" s="38" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="104" spans="3:9" s="46" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="D104" s="46" t="s">
+    <row r="104" spans="3:9" s="38" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D104" s="38" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="105" spans="3:9" s="46" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="D105" s="46" t="s">
+    <row r="105" spans="3:9" s="38" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D105" s="38" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="106" spans="3:9" s="46" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="E106" s="46" t="s">
+    <row r="106" spans="3:9" s="38" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E106" s="38" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="107" spans="3:9" s="46" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="108" spans="3:9" s="46" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="E108" s="46" t="s">
+    <row r="107" spans="3:9" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="108" spans="3:9" s="38" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E108" s="38" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="109" spans="3:9" s="46" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="110" spans="3:9" s="46" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="E110" s="46" t="s">
+    <row r="109" spans="3:9" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="110" spans="3:9" s="38" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E110" s="38" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="111" spans="3:9" s="46" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="112" spans="3:9" s="46" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="E112" s="46" t="s">
+    <row r="111" spans="3:9" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="112" spans="3:9" s="38" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E112" s="38" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="113" spans="3:6" s="46" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="F113" s="46" t="s">
+    <row r="113" spans="3:6" s="38" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F113" s="38" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="114" spans="3:6" s="46" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="F114" s="46" t="s">
+    <row r="114" spans="3:6" s="38" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F114" s="38" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="115" spans="3:6" s="46" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="F115" s="46" t="s">
+    <row r="115" spans="3:6" s="38" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F115" s="38" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="116" spans="3:6" s="46" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="E116" s="46" t="s">
+    <row r="116" spans="3:6" s="38" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E116" s="38" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="117" spans="3:6" s="46" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="F117" s="46" t="s">
+    <row r="117" spans="3:6" s="38" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F117" s="38" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="118" spans="3:6" s="46" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="F118" s="46" t="s">
+    <row r="118" spans="3:6" s="38" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F118" s="38" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="119" spans="3:6" s="46" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="120" spans="3:6" s="46" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="E120" s="46" t="s">
+    <row r="119" spans="3:6" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="120" spans="3:6" s="38" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E120" s="38" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="121" spans="3:6" s="46" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="122" spans="3:6" s="46" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C122" s="46" t="s">
+    <row r="121" spans="3:6" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="122" spans="3:6" s="38" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C122" s="38" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="123" spans="3:6" s="46" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="D123" s="46" t="s">
+    <row r="123" spans="3:6" s="38" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D123" s="38" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="124" spans="3:6" s="46" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="D124" s="46" t="s">
+    <row r="124" spans="3:6" s="38" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D124" s="38" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="125" spans="3:6" s="46" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="D125" s="46" t="s">
+    <row r="125" spans="3:6" s="38" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D125" s="38" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="126" spans="3:6" s="46" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="D126" s="46" t="s">
+    <row r="126" spans="3:6" s="38" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D126" s="38" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="127" spans="3:6" s="46" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="D127" s="46" t="s">
+    <row r="127" spans="3:6" s="38" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D127" s="38" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="128" spans="3:6" s="46" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="D128" s="46" t="s">
+    <row r="128" spans="3:6" s="38" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D128" s="38" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="129" spans="1:11" s="46" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="130" spans="1:11" s="46" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C130" s="46" t="s">
+    <row r="129" spans="1:11" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="130" spans="1:11" s="38" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C130" s="38" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="131" spans="1:11" s="46" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="J131" s="46" t="s">
+    <row r="131" spans="1:11" s="38" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="J131" s="38" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="132" spans="1:11" s="46" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="K132" s="46" t="s">
+    <row r="132" spans="1:11" s="38" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="K132" s="38" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="133" spans="1:11" s="46" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="K133" s="46" t="s">
+    <row r="133" spans="1:11" s="38" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="K133" s="38" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="134" spans="1:11" s="46" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="K134" s="46" t="s">
+    <row r="134" spans="1:11" s="38" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="K134" s="38" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="135" spans="1:11" s="46" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="K135" s="46" t="s">
+    <row r="135" spans="1:11" s="38" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="K135" s="38" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="136" spans="1:11" s="46" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="137" spans="1:11" s="46" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="J137" s="46" t="s">
+    <row r="136" spans="1:11" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="137" spans="1:11" s="38" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="J137" s="38" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="138" spans="1:11" s="46" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="K138" s="46" t="s">
+    <row r="138" spans="1:11" s="38" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="K138" s="38" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="139" spans="1:11" s="46" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="K139" s="46" t="s">
+    <row r="139" spans="1:11" s="38" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="K139" s="38" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="140" spans="1:11" s="46" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="K140" s="46" t="s">
+    <row r="140" spans="1:11" s="38" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="K140" s="38" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="141" spans="1:11" s="46" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A141" s="48"/>
-    </row>
-    <row r="142" spans="1:11" s="46" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="143" spans="1:11" s="46" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="144" spans="1:11" s="46" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="145" s="46" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="146" s="46" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="147" s="46" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="148" s="46" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="149" s="46" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="150" s="46" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="151" s="46" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="152" s="46" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="153" s="46" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="154" s="46" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="155" s="46" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="156" s="46" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="157" s="46" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="158" s="46" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="159" s="46" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="160" s="46" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="161" spans="1:3" s="46" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="162" spans="1:3" s="46" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="163" spans="1:3" s="46" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="164" spans="1:3" s="46" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="165" spans="1:3" s="46" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="166" spans="1:3" s="46" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="167" spans="1:3" s="46" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="168" spans="1:3" s="46" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="141" spans="1:11" s="38" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A141" s="40"/>
+    </row>
+    <row r="142" spans="1:11" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="143" spans="1:11" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="144" spans="1:11" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="145" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="146" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="147" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="148" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="149" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="150" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="151" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="152" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="153" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="154" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="155" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="156" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="157" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="158" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="159" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="160" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="161" spans="1:3" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="162" spans="1:3" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="163" spans="1:3" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="164" spans="1:3" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="165" spans="1:3" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="166" spans="1:3" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="167" spans="1:3" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="168" spans="1:3" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="169" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A169" s="1" t="s">
         <v>42</v>
@@ -17179,8 +17183,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S351"/>
   <sheetViews>
-    <sheetView topLeftCell="A325" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" topLeftCell="A325" workbookViewId="0">
+      <selection activeCell="M357" sqref="M357"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -18308,7 +18312,11 @@
         <v>257</v>
       </c>
     </row>
-    <row r="351" s="33" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="351" spans="1:1" s="33" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A351" s="34" t="s">
+        <v>292</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -18321,7 +18329,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P23" sqref="P23"/>
     </sheetView>
   </sheetViews>
@@ -18427,10 +18435,10 @@
       <c r="D3" s="6"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="38" t="s">
+      <c r="A4" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="39" t="s">
+      <c r="B4" s="42" t="s">
         <v>12</v>
       </c>
       <c r="C4" s="7" t="s">
@@ -18440,8 +18448,8 @@
       <c r="E4" s="3"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="38"/>
-      <c r="B5" s="39"/>
+      <c r="A5" s="41"/>
+      <c r="B5" s="42"/>
       <c r="C5" s="9" t="s">
         <v>7</v>
       </c>
@@ -18449,8 +18457,8 @@
       <c r="E5" s="3"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="38"/>
-      <c r="B6" s="39"/>
+      <c r="A6" s="41"/>
+      <c r="B6" s="42"/>
       <c r="C6" s="9" t="s">
         <v>8</v>
       </c>
@@ -18459,8 +18467,8 @@
       <c r="H6" s="15"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="38"/>
-      <c r="B7" s="39"/>
+      <c r="A7" s="41"/>
+      <c r="B7" s="42"/>
       <c r="C7" s="9" t="s">
         <v>9</v>
       </c>
@@ -18468,8 +18476,8 @@
       <c r="E7" s="3"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="38"/>
-      <c r="B8" s="39"/>
+      <c r="A8" s="41"/>
+      <c r="B8" s="42"/>
       <c r="C8" s="9" t="s">
         <v>13</v>
       </c>
@@ -18477,8 +18485,8 @@
       <c r="E8" s="3"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="38"/>
-      <c r="B9" s="39"/>
+      <c r="A9" s="41"/>
+      <c r="B9" s="42"/>
       <c r="C9" s="9" t="s">
         <v>10</v>
       </c>
@@ -18486,8 +18494,8 @@
       <c r="E9" s="3"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="38"/>
-      <c r="B10" s="39"/>
+      <c r="A10" s="41"/>
+      <c r="B10" s="42"/>
       <c r="C10" s="9" t="s">
         <v>11</v>
       </c>
@@ -18495,53 +18503,53 @@
       <c r="E10" s="3"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="38"/>
-      <c r="B11" s="39"/>
+      <c r="A11" s="41"/>
+      <c r="B11" s="42"/>
       <c r="C11" s="11"/>
       <c r="D11" s="12"/>
       <c r="E11" s="3"/>
     </row>
     <row r="12" spans="1:8" ht="71.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="43" t="s">
+      <c r="A12" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="B12" s="40" t="s">
+      <c r="B12" s="43" t="s">
         <v>46</v>
       </c>
-      <c r="C12" s="40" t="s">
+      <c r="C12" s="43" t="s">
         <v>47</v>
       </c>
-      <c r="D12" s="40"/>
+      <c r="D12" s="43"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="44"/>
-      <c r="B13" s="41"/>
-      <c r="C13" s="41"/>
-      <c r="D13" s="41"/>
+      <c r="A13" s="47"/>
+      <c r="B13" s="44"/>
+      <c r="C13" s="44"/>
+      <c r="D13" s="44"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="44"/>
-      <c r="B14" s="41"/>
-      <c r="C14" s="41"/>
-      <c r="D14" s="41"/>
+      <c r="A14" s="47"/>
+      <c r="B14" s="44"/>
+      <c r="C14" s="44"/>
+      <c r="D14" s="44"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="44"/>
-      <c r="B15" s="41"/>
-      <c r="C15" s="41"/>
-      <c r="D15" s="41"/>
+      <c r="A15" s="47"/>
+      <c r="B15" s="44"/>
+      <c r="C15" s="44"/>
+      <c r="D15" s="44"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="44"/>
-      <c r="B16" s="41"/>
-      <c r="C16" s="41"/>
-      <c r="D16" s="41"/>
+      <c r="A16" s="47"/>
+      <c r="B16" s="44"/>
+      <c r="C16" s="44"/>
+      <c r="D16" s="44"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="45"/>
-      <c r="B17" s="42"/>
-      <c r="C17" s="42"/>
-      <c r="D17" s="42"/>
+      <c r="A17" s="48"/>
+      <c r="B17" s="45"/>
+      <c r="C17" s="45"/>
+      <c r="D17" s="45"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B18" s="14"/>

--- a/文档/系统.xlsx
+++ b/文档/系统.xlsx
@@ -4,14 +4,15 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="系统构架" sheetId="1" r:id="rId1"/>
     <sheet name="战斗系统" sheetId="3" r:id="rId2"/>
     <sheet name="城镇" sheetId="4" r:id="rId3"/>
-    <sheet name="公式" sheetId="5" r:id="rId4"/>
-    <sheet name="经济系统" sheetId="2" r:id="rId5"/>
+    <sheet name="角色" sheetId="6" r:id="rId4"/>
+    <sheet name="公式" sheetId="5" r:id="rId5"/>
+    <sheet name="经济系统" sheetId="2" r:id="rId6"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="331">
   <si>
     <t>2.1 货币介绍</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1228,12 +1229,177 @@
     <t>宿舍</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>角色相关</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>面板属性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生命</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>防御</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>敏捷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>背包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗恢复(值）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>群体治疗(值/5s)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能冷却-%(值)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>眩晕%(值)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>移速(值)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暴击率(值)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>爆伤(值）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>反伤%(值)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>该数值决定人物的最大血量值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>该数值决定人物的防御值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>该数值决定人物的攻击力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>该数值决定人物的最终伤害浮动范围、暴击率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻速(值)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>该数值影响人物的攻击频率，值/s。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>该数值影响人物每次攻击触发暴击的概率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>该数值影响人物触发行动状态时的移动速度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>该数值影响人物攻击时触发眩晕效果的概率。 眩晕效果统一持续2s，该状态下人物无法攻击/移动。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>该数值影响人物每次攻击时，对目标造成的 实际伤害x (值)% 的生命恢复效果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>该值影响该人物的技能冷却值。 技能默认冷却(秒 x (1-(值))</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>灼烧(值/s,范围值)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每1s触发一次，对该人物(x)距离内的怪物造成(y)点伤害。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>该值影响人物攻击造成暴击时的伤害值。初始默认150%。 最终爆伤值= 150%+爆伤修正</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>击中回复%(值)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人物受到的实际伤害*反伤%=反伤伤害 （真实伤害）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每5s触发一次，恢复该人物x值的生命值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每5s触发一次，恢复除该人物外所有队友的x点生命值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人物死亡时，对x范围内的敌人造成y点伤害 （真实伤害）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自爆(距离,值)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>流血(x值,y率)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">人物攻击时，有y的概率对目标造成流血状态，流血状态下的目标每1s造成x值的伤害。效果生效时如果再次触发，时间重置，不追加。  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>流血默认持续5s</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能属性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1365,6 +1531,14 @@
       <color rgb="FFFF0000"/>
       <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.499984740745262"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1546,7 +1720,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -1636,6 +1810,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -16259,6 +16434,49 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>256688</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>94801</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14192250" y="1438275"/>
+          <a:ext cx="3895238" cy="3590476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -16529,7 +16747,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="X33" sqref="X33"/>
     </sheetView>
   </sheetViews>
@@ -17181,10 +17399,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S351"/>
+  <dimension ref="A1:S362"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A325" workbookViewId="0">
-      <selection activeCell="M357" sqref="M357"/>
+    <sheetView topLeftCell="A323" workbookViewId="0">
+      <selection activeCell="G362" sqref="G362"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -18317,6 +18535,16 @@
         <v>292</v>
       </c>
     </row>
+    <row r="355" spans="1:7" s="33" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A355" s="34" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="362" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G362" s="2" t="s">
+        <v>299</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -18326,6 +18554,177 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L31" sqref="L31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="16384" width="9" style="39"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1" s="16" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B4" s="39" t="s">
+        <v>175</v>
+      </c>
+      <c r="C4" s="39" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B5" s="39" t="s">
+        <v>295</v>
+      </c>
+      <c r="C5" s="39" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B6" s="39" t="s">
+        <v>296</v>
+      </c>
+      <c r="C6" s="39" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B7" s="39" t="s">
+        <v>297</v>
+      </c>
+      <c r="C7" s="39" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B9" s="39" t="s">
+        <v>312</v>
+      </c>
+      <c r="C9" s="39" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B10" s="39" t="s">
+        <v>305</v>
+      </c>
+      <c r="C10" s="39" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B11" s="39" t="s">
+        <v>304</v>
+      </c>
+      <c r="C11" s="39" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B12" s="39" t="s">
+        <v>303</v>
+      </c>
+      <c r="C12" s="39" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B13" s="39" t="s">
+        <v>322</v>
+      </c>
+      <c r="C13" s="39" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B14" s="39" t="s">
+        <v>302</v>
+      </c>
+      <c r="D14" s="39" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B15" s="39" t="s">
+        <v>319</v>
+      </c>
+      <c r="D15" s="39" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B16" s="39" t="s">
+        <v>306</v>
+      </c>
+      <c r="D16" s="39" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B17" s="39" t="s">
+        <v>307</v>
+      </c>
+      <c r="D17" s="39" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B18" s="39" t="s">
+        <v>300</v>
+      </c>
+      <c r="D18" s="39" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B19" s="39" t="s">
+        <v>301</v>
+      </c>
+      <c r="D19" s="39" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B20" s="49" t="s">
+        <v>327</v>
+      </c>
+      <c r="D20" s="39" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B21" s="39" t="s">
+        <v>328</v>
+      </c>
+      <c r="D21" s="39" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>330</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C19"/>
   <sheetViews>
@@ -18402,7 +18801,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H23"/>
   <sheetViews>
